--- a/共有用フォルダー/04_DB定義書_そばうどん.xlsx
+++ b/共有用フォルダー/04_DB定義書_そばうどん.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{FEDA3675-07C7-4049-A039-5ACC4B24076C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6658D0B-007B-4E82-A05A-088C452A9238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="management" sheetId="2" r:id="rId3"/>
     <sheet name="point" sheetId="4" r:id="rId4"/>
     <sheet name="bbs" sheetId="7" r:id="rId5"/>
-    <sheet name="title" sheetId="9" r:id="rId6"/>
+    <sheet name="achievement" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="103">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -418,10 +417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BLOB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varcharで主食,主菜,副菜,その他,食べていないかの判定。</t>
     <rPh sb="8" eb="10">
       <t>シュショク</t>
@@ -566,19 +561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BLOBに関して、要検討</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cpoint</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -629,10 +611,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポイント（主キー）,称号名</t>
     <rPh sb="5" eb="6">
       <t>シュ</t>
@@ -640,6 +618,24 @@
     <rPh sb="10" eb="13">
       <t>ショウゴウメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achievement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>称号画像</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>titleimage</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1108,25 +1104,25 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="105" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="58.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1136,7 +1132,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1146,19 +1142,19 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1183,7 +1179,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>24</v>
@@ -1192,7 +1188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1200,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>24</v>
@@ -1209,7 +1205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1217,7 +1213,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>24</v>
@@ -1226,7 +1222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1234,33 +1230,33 @@
         <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1269,7 +1265,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1278,7 +1274,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1287,7 +1283,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1296,7 +1292,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1305,7 +1301,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1314,7 +1310,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1323,7 +1319,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1332,7 +1328,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1341,7 +1337,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1350,7 +1346,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1359,7 +1355,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1368,7 +1364,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1377,7 +1373,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1386,7 +1382,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1395,7 +1391,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1404,7 +1400,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1413,7 +1409,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1422,7 +1418,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1431,7 +1427,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1440,7 +1436,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1449,7 +1445,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1458,7 +1454,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1467,7 +1463,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1476,7 +1472,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1485,7 +1481,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1506,28 +1502,28 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1533,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1547,7 +1543,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1557,7 +1553,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1563,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1603,7 +1599,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1631,7 +1627,7 @@
         <v>user_id varchar (12),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1639,7 +1635,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>53</v>
@@ -1657,7 +1653,7 @@
         <v>password varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1665,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>53</v>
@@ -1683,7 +1679,7 @@
         <v>name varchar (20),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1691,7 +1687,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -1707,7 +1703,7 @@
         <v>height double ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1715,7 +1711,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>56</v>
@@ -1731,7 +1727,7 @@
         <v>weight double ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1739,7 +1735,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>56</v>
@@ -1754,7 +1750,7 @@
         <v xml:space="preserve">target_weight double </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1772,7 +1768,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1790,7 +1786,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1808,7 +1804,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1826,7 +1822,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1844,7 +1840,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1862,7 +1858,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1880,7 +1876,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1898,7 +1894,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1916,7 +1912,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1934,7 +1930,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1952,7 +1948,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1970,7 +1966,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1988,7 +1984,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2006,7 +2002,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2022,29 +2018,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2054,7 +2050,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2064,7 +2060,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2074,7 +2070,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2084,7 +2080,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2116,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2148,7 +2144,7 @@
         <v>user_id varchar (12),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2170,7 +2166,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2178,7 +2174,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
@@ -2191,14 +2187,14 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>breakfast varchar (5),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2206,7 +2202,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>53</v>
@@ -2224,7 +2220,7 @@
         <v>bftext varchar (100),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2232,7 +2228,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>53</v>
@@ -2250,7 +2246,7 @@
         <v>lunch varchar (5),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2258,7 +2254,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -2276,7 +2272,7 @@
         <v>lctext varchar (100),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2284,7 +2280,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>53</v>
@@ -2302,7 +2298,7 @@
         <v>dinner varchar (5),</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2310,7 +2306,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>53</v>
@@ -2328,7 +2324,7 @@
         <v>dntext varchar (100),</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2336,7 +2332,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>55</v>
@@ -2354,7 +2350,7 @@
         <v>snack int (1),</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2362,7 +2358,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>55</v>
@@ -2380,7 +2376,7 @@
         <v>exercise int (1),</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2388,7 +2384,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>55</v>
@@ -2406,7 +2402,7 @@
         <v>drink int (1),</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2414,7 +2410,7 @@
         <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>56</v>
@@ -2430,7 +2426,7 @@
         <v>dayweight double ,</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2438,33 +2434,31 @@
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="J22" s="3"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>picture BLOB ,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>picture String ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
@@ -2475,14 +2469,14 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bmi double </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2500,7 +2494,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2518,7 +2512,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2536,7 +2530,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2554,7 +2548,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2572,7 +2566,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2590,7 +2584,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -2608,7 +2602,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
         <v>20</v>
       </c>
@@ -2624,29 +2618,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB5CD6-4A32-435C-9D2E-5F05D8C25658}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2650,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2666,7 +2660,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2676,7 +2670,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2686,7 +2680,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2722,7 +2716,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2750,7 +2744,7 @@
         <v>user_id varchar (12),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2758,7 +2752,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>55</v>
@@ -2771,14 +2765,14 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>cpoint int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2786,7 +2780,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>55</v>
@@ -2799,14 +2793,14 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">ppoint int </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2824,7 +2818,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2842,7 +2836,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2860,7 +2854,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2878,7 +2872,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2896,7 +2890,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2914,7 +2908,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2932,7 +2926,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2950,7 +2944,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2968,7 +2962,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2986,7 +2980,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3004,7 +2998,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3022,7 +3016,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3040,7 +3034,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3058,7 +3052,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3076,7 +3070,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3094,7 +3088,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3112,7 +3106,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3129,28 +3123,28 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3160,7 +3154,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3170,7 +3164,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3180,7 +3174,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3190,7 +3184,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3226,7 +3220,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3254,7 +3248,7 @@
         <v>user_id varchar (12),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3280,7 +3274,7 @@
         <v>user_name varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3288,7 +3282,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
@@ -3306,7 +3300,7 @@
         <v>user_chattext varchar (200),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3314,7 +3308,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>55</v>
@@ -3330,7 +3324,7 @@
         <v>user_cp int ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3354,15 +3348,15 @@
         <v>date String ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>55</v>
@@ -3373,14 +3367,14 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">counter int </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3398,7 +3392,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3416,7 +3410,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3434,7 +3428,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3452,7 +3446,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3470,7 +3464,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3488,7 +3482,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3506,7 +3500,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3524,7 +3518,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3542,7 +3536,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3560,7 +3554,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3578,7 +3572,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3596,7 +3590,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3614,7 +3608,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3632,7 +3626,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3648,29 +3642,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E04B99E-9058-48AC-94FD-19CDF3762936}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3680,7 +3674,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3690,7 +3684,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3700,7 +3694,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3710,7 +3704,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3746,7 +3740,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3754,7 +3748,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>55</v>
@@ -3772,15 +3766,15 @@
         <v>titlepoint int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>60</v>
@@ -3792,16 +3786,22 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">titlename String </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>titlename String ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3810,10 +3810,10 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">titleimage String </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>20</v>
       </c>

--- a/共有用フォルダー/04_DB定義書_そばうどん.xlsx
+++ b/共有用フォルダー/04_DB定義書_そばうどん.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6658D0B-007B-4E82-A05A-088C452A9238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96219B-ABA0-4B92-B753-1FE16C168E39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -376,10 +376,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varchar</t>
   </si>
   <si>
@@ -439,14 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_cp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_chattext</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID(主キー),ニックネーム,テキスト,現在のポイント</t>
     <rPh sb="3" eb="4">
       <t>シュ</t>
@@ -636,6 +624,10 @@
   </si>
   <si>
     <t>titleimage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chattext</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1108,21 +1100,21 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="58.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1132,7 +1124,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1142,19 +1134,19 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1179,7 +1171,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>24</v>
@@ -1188,7 +1180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1196,7 +1188,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>24</v>
@@ -1205,7 +1197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1213,7 +1205,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>24</v>
@@ -1222,7 +1214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1230,33 +1222,33 @@
         <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1265,7 +1257,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1274,7 +1266,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1283,7 +1275,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1292,7 +1284,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1301,7 +1293,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1310,7 +1302,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1319,7 +1311,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1328,7 +1320,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1337,7 +1329,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1346,7 +1338,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1355,7 +1347,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1364,7 +1356,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1373,7 +1365,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1382,7 +1374,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1391,7 +1383,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1400,7 +1392,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1409,7 +1401,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1418,7 +1410,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1427,7 +1419,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1436,7 +1428,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1445,7 +1437,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1454,7 +1446,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1463,7 +1455,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1472,7 +1464,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1481,7 +1473,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1505,25 +1497,25 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1533,7 +1525,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1543,7 +1535,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1553,7 +1545,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1563,7 +1555,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1599,7 +1591,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1610,13 +1602,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3">
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="6"/>
@@ -1627,7 +1619,7 @@
         <v>user_id varchar (12),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1635,10 +1627,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1653,7 +1645,7 @@
         <v>password varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1661,10 +1653,10 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -1679,7 +1671,7 @@
         <v>name varchar (20),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1687,10 +1679,10 @@
         <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1703,7 +1695,7 @@
         <v>height double ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1711,10 +1703,10 @@
         <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1727,7 +1719,7 @@
         <v>weight double ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1735,10 +1727,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1750,7 +1742,7 @@
         <v xml:space="preserve">target_weight double </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1768,7 +1760,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1786,7 +1778,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1804,7 +1796,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1822,7 +1814,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1840,7 +1832,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1858,7 +1850,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1876,7 +1868,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1894,7 +1886,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1912,7 +1904,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1930,7 +1922,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1948,7 +1940,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1966,7 +1958,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1984,7 +1976,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2002,7 +1994,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2022,25 +2014,25 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2050,7 +2042,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2060,7 +2052,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2070,7 +2062,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2080,7 +2072,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2116,7 +2108,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2127,13 +2119,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3">
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2144,7 +2136,7 @@
         <v>user_id varchar (12),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2152,21 +2144,21 @@
         <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="44.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2174,10 +2166,10 @@
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -2187,14 +2179,14 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>breakfast varchar (5),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2202,10 +2194,10 @@
         <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -2220,7 +2212,7 @@
         <v>bftext varchar (100),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2228,10 +2220,10 @@
         <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
@@ -2246,7 +2238,7 @@
         <v>lunch varchar (5),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2254,10 +2246,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -2272,7 +2264,7 @@
         <v>lctext varchar (100),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2280,10 +2272,10 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
@@ -2298,7 +2290,7 @@
         <v>dinner varchar (5),</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2306,10 +2298,10 @@
         <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -2324,7 +2316,7 @@
         <v>dntext varchar (100),</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2332,10 +2324,10 @@
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -2350,7 +2342,7 @@
         <v>snack int (1),</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2358,10 +2350,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -2376,7 +2368,7 @@
         <v>exercise int (1),</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2384,10 +2376,10 @@
         <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -2402,18 +2394,18 @@
         <v>drink int (1),</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2426,7 +2418,7 @@
         <v>dayweight double ,</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2434,10 +2426,10 @@
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="6"/>
@@ -2450,18 +2442,18 @@
         <v>picture String ,</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2469,14 +2461,14 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bmi double </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2494,7 +2486,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2512,7 +2504,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2530,7 +2522,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2548,7 +2540,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2566,7 +2558,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2584,7 +2576,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -2602,7 +2594,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
         <v>20</v>
       </c>
@@ -2622,25 +2614,25 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2650,7 +2642,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2660,7 +2652,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2670,7 +2662,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2680,7 +2672,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2716,7 +2708,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2727,13 +2719,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3">
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2744,7 +2736,7 @@
         <v>user_id varchar (12),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2752,10 +2744,10 @@
         <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2765,14 +2757,14 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>cpoint int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2780,10 +2772,10 @@
         <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2793,14 +2785,14 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">ppoint int </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2818,7 +2810,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2836,7 +2828,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2854,7 +2846,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2872,7 +2864,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2890,7 +2882,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2908,7 +2900,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2926,7 +2918,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2944,7 +2936,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2962,7 +2954,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2980,7 +2972,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2998,7 +2990,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3016,7 +3008,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3034,7 +3026,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3052,7 +3044,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3070,7 +3062,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3088,7 +3080,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3106,7 +3098,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3122,29 +3114,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3A781E-25A8-4C0D-BBFB-6F0908ECFF4E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3154,7 +3146,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3164,7 +3156,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3174,7 +3166,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3184,7 +3176,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3220,7 +3212,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3231,13 +3223,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3">
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -3248,7 +3240,7 @@
         <v>user_id varchar (12),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3256,10 +3248,10 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -3271,10 +3263,10 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_name varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>name varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3282,10 +3274,10 @@
         <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -3297,10 +3289,10 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_chattext varchar (200),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>chattext varchar (200),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3308,10 +3300,10 @@
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3321,10 +3313,10 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_cp int ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>cpoint int ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3332,10 +3324,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3348,18 +3340,18 @@
         <v>date String ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3367,14 +3359,14 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">counter int </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3392,7 +3384,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3410,7 +3402,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3428,7 +3420,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3446,7 +3438,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3464,7 +3456,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3482,7 +3474,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3500,7 +3492,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3518,7 +3510,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3536,7 +3528,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3554,7 +3546,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3572,7 +3564,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3590,7 +3582,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3608,7 +3600,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3626,7 +3618,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -3642,29 +3634,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E04B99E-9058-48AC-94FD-19CDF3762936}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3674,7 +3666,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3684,7 +3676,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3694,7 +3686,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3704,7 +3696,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3740,7 +3732,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3748,14 +3740,14 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -3766,18 +3758,18 @@
         <v>titlepoint int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3789,18 +3781,18 @@
         <v>titlename String ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3813,7 +3805,7 @@
         <v xml:space="preserve">titleimage String </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3831,7 +3823,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3849,7 +3841,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3867,7 +3859,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3885,7 +3877,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3903,7 +3895,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3921,7 +3913,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3939,7 +3931,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3957,7 +3949,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3975,7 +3967,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3993,7 +3985,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4011,7 +4003,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4029,7 +4021,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4047,7 +4039,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4065,7 +4057,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4083,7 +4075,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4101,7 +4093,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4119,7 +4111,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>20</v>
       </c>

--- a/共有用フォルダー/04_DB定義書_そばうどん.xlsx
+++ b/共有用フォルダー/04_DB定義書_そばうどん.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96219B-ABA0-4B92-B753-1FE16C168E39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F8FA74-A79F-4793-A5B0-AD2FCBB8703D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="information" sheetId="3" r:id="rId2"/>
-    <sheet name="management" sheetId="2" r:id="rId3"/>
+    <sheet name="user" sheetId="3" r:id="rId2"/>
+    <sheet name="manage" sheetId="2" r:id="rId3"/>
     <sheet name="point" sheetId="4" r:id="rId4"/>
     <sheet name="bbs" sheetId="7" r:id="rId5"/>
-    <sheet name="achievement" sheetId="9" r:id="rId6"/>
+    <sheet name="title" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -445,13 +445,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字数カウント</t>
-    <rPh sb="0" eb="3">
-      <t>モジスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>information</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -465,23 +458,6 @@
   </si>
   <si>
     <t>bbs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>counter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>jsを用いて文字数カウンターを作成</t>
-    <rPh sb="3" eb="4">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -628,6 +604,16 @@
   </si>
   <si>
     <t>chattext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランクが切り替わるときのポイント</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1171,7 +1157,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>24</v>
@@ -1188,7 +1174,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>24</v>
@@ -1205,7 +1191,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>24</v>
@@ -1222,7 +1208,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
@@ -1236,16 +1222,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1494,7 +1480,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1627,7 +1613,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>52</v>
@@ -1653,7 +1639,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>52</v>
@@ -1679,7 +1665,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>55</v>
@@ -1703,7 +1689,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>55</v>
@@ -1727,7 +1713,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>55</v>
@@ -2010,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2166,7 +2152,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>53</v>
@@ -2194,7 +2180,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>52</v>
@@ -2220,7 +2206,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>52</v>
@@ -2246,7 +2232,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>52</v>
@@ -2272,7 +2258,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>52</v>
@@ -2298,7 +2284,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>52</v>
@@ -2324,7 +2310,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -2350,7 +2336,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>54</v>
@@ -2376,7 +2362,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>54</v>
@@ -2402,7 +2388,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>55</v>
@@ -2426,7 +2412,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>59</v>
@@ -2447,10 +2433,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>55</v>
@@ -2461,7 +2447,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
@@ -2611,7 +2597,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2744,7 +2730,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -2757,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2772,7 +2758,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
@@ -2785,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3114,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3A781E-25A8-4C0D-BBFB-6F0908ECFF4E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3248,7 +3234,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>53</v>
@@ -3274,7 +3260,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>53</v>
@@ -3300,7 +3286,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>54</v>
@@ -3337,33 +3323,25 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>date String ,</v>
+        <v xml:space="preserve">date String </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">counter int </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3634,8 +3612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E04B99E-9058-48AC-94FD-19CDF3762936}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3653,7 +3631,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3740,19 +3718,19 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>titlepoint int ,</v>
@@ -3763,10 +3741,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>59</v>
@@ -3786,10 +3764,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>59</v>
